--- a/GuideIt데이터베이스.xlsx
+++ b/GuideIt데이터베이스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xpc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8236A6E0-13FB-4D85-8212-822CD5901771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD62BD6-C22C-4BCD-97E4-66427B89928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2565" yWindow="0" windowWidth="23145" windowHeight="21000" xr2:uid="{4EA3F131-0CE8-448F-BBA3-DA320150A7A4}"/>
+    <workbookView xWindow="15855" yWindow="1095" windowWidth="20190" windowHeight="15435" xr2:uid="{4EA3F131-0CE8-448F-BBA3-DA320150A7A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,258 +158,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>레노버 아이디어패드 Slim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레노버 씽크패드 T16 Gen1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21CHS00A00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16IML G7 ULT5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레노버 씽크북 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레노버 씽크북 15 Gen5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ABP 21JF0003KR </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레노버 씽크북 15 Gen5 512GB SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Razer Blade 16 14Gen 4K Dual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MSI 프레스티지 16 AI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI 모던시리즈 모던 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG전자 울트라PC 엣지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG전자 그램 스타일16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG전자 2024 그램 프로16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16Z90SP-GA5CK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG전자 2023 울트라PC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15U40R-GP50ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 파빌리온 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ag0024AU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep1063TU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 울트론 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 오멘 14 슬림 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa0040AU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 엔비 x360 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT750XFG-KC58S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Z북 Fury 16 G11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL 에일리언웨어 x14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS 크롬북 플립 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS 젠북 14 OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS 비보북 S 16 OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS 비보북 S 15 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5507QA-MA068W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS ROG 제피러스 G16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA605WI-QR102W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS ROG SCAR </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G733PY-LL002W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS ProArt P16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H7606WI-ME141X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE 2024 맥북프로16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUW63KH/A M3 Max 16Core 40GPU 48GB 1TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE 2024 맥북프로14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRX33KH/A M3 Pro 11Core - 14GPU - 18GB - 512GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE 2024 맥북에어15 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRYU3KH/A M3 8Core 10GPU 8GB 256GB</t>
+  </si>
+  <si>
+    <t>APPLE 2024 맥북에어13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRXU3KH/A M3 8Core 10GPU 8GB 512GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5606MA-MX181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX3405MA-PP721W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7M-R5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT750XGJ-KH51G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFG14-73-52V6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODELNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT960XFG-KP51G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABP 21JF0006KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1MG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16U70R-HA56K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>16Z90RS-GA56K</t>
-  </si>
-  <si>
-    <t>레노버 아이디어패드 Slim3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">레노버 씽크패드 T16 Gen1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21CHS00A00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16IML G7 ULT5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레노버 씽크북 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABP 21JF0006KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">레노버 씽크북 15 Gen5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ABP 21JF0003KR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레노버 씽크북 15 Gen5 512GB SSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Razer Blade 16 14Gen 4K Dual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R4090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSI 프레스티지 16 AI </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1MG</t>
-  </si>
-  <si>
-    <t>MSI 모던시리즈 모던 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LG전자 울트라PC 엣지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16U70R-HA56K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG전자 그램 스타일16 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LG전자 2024 그램 프로16 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16Z90SP-GA5CK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LG전자 2023 울트라PC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15U40R-GP50ML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 파빌리온 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ag0024AU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep1063TU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 울트론 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HP 오멘 14 슬림 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fb0078TX</t>
-  </si>
-  <si>
-    <t>fa0040AU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 엔비 x360 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT750XFG-KC58S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Z북 Fury 16 G11 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A41ZFPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fd1021TU</t>
-  </si>
-  <si>
-    <t>HP 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>em0061AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELL 에일리언웨어 x14 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R2 WP01KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUS 크롬북 플립 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C214MA-BU0373</t>
-  </si>
-  <si>
-    <t>ASUS 젠북 14 OLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASUS 비보북 S 16 OLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUS 비보북 S 15 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5507QA-MA068W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUS ROG 제피러스 G16 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GA605WI-QR102W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUS ROG SCAR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G733PY-LL002W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUS ProArt P16 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H7606WI-ME141X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE 2024 맥북프로16 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUW63KH/A M3 Max 16Core 40GPU 48GB 1TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE 2024 맥북프로14 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRX33KH/A M3 Pro 11Core - 14GPU - 18GB - 512GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE 2024 맥북에어15 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRYU3KH/A M3 8Core 10GPU 8GB 256GB</t>
-  </si>
-  <si>
-    <t>APPLE 2024 맥북에어13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRXU3KH/A M3 8Core 10GPU 8GB 512GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5606MA-MX181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UX3405MA-PP721W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7M-R5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT750XGJ-KH51G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFG14-73-52V6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODELNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT960XFG-KP51G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27519B8-7587-4BB0-8A9A-19EFA9C372BC}">
   <dimension ref="C3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -893,10 +904,10 @@
   <sheetData>
     <row r="3" spans="3:13">
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -931,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1001,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -1036,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1106,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1179,7 +1190,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -1211,10 +1222,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -1246,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -1281,10 +1292,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -1316,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -1351,10 +1362,10 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1386,10 +1397,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1421,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1456,10 +1467,10 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1491,10 +1502,10 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -1526,10 +1537,10 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1561,10 +1572,10 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -1596,10 +1607,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
@@ -1626,15 +1637,15 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="33">
+    <row r="24" spans="3:13">
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
@@ -1666,10 +1677,10 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1701,10 +1712,10 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1736,10 +1747,10 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
@@ -1771,10 +1782,10 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
@@ -1806,10 +1817,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1841,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1876,10 +1887,10 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1911,10 +1922,10 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1946,10 +1957,10 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1981,10 +1992,10 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -2016,10 +2027,10 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -2051,10 +2062,10 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -2086,10 +2097,10 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
@@ -2121,10 +2132,10 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -2156,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -2191,10 +2202,10 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -2226,10 +2237,10 @@
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -2259,8 +2270,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>